--- a/GI05MOAS-GL00#/Omaha_Cal_Info_GI05MOAS-GL00#_0000#.xlsx
+++ b/GI05MOAS-GL00#/Omaha_Cal_Info_GI05MOAS-GL00#_0000#.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="12720" windowHeight="12405" tabRatio="377" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="12720" windowHeight="12405" tabRatio="377" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Read Me" sheetId="3" r:id="rId1"/>
@@ -535,6 +535,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -765,14 +766,14 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2102,7 +2103,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
@@ -2190,11 +2191,11 @@
         <v>31</v>
       </c>
       <c r="K2" s="16"/>
-      <c r="L2" s="40">
+      <c r="L2" s="39">
         <f>((LEFT(G2,(FIND("°",G2,1)-1)))+(MID(G2,(FIND("°",G2,1)+1),(FIND("'",G2,1))-(FIND("°",G2,1)+1))/60))*(IF(RIGHT(G2,1)="N",1,-1))</f>
         <v>39.825338333333335</v>
       </c>
-      <c r="M2" s="40">
+      <c r="M2" s="39">
         <f>((LEFT(H2,(FIND("°",H2,1)-1)))+(MID(H2,(FIND("°",H2,1)+1),(FIND("'",H2,1))-(FIND("°",H2,1)+1))/60))*(IF(RIGHT(H2,1)="E",1,-1))</f>
         <v>-70.582703333333328</v>
       </c>
@@ -2234,10 +2235,10 @@
       <c r="J4" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="L4" s="41" t="s">
+      <c r="L4" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="M4" s="41" t="s">
+      <c r="M4" s="40" t="s">
         <v>65</v>
       </c>
     </row>
@@ -2250,10 +2251,10 @@
     <row r="7" spans="1:13" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
-      <c r="G7" s="39" t="s">
+      <c r="G7" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="H7" s="39"/>
+      <c r="H7" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2269,8 +2270,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2328,7 +2329,7 @@
         <v>52</v>
       </c>
       <c r="F2" s="36">
-        <v>117</v>
+        <v>140</v>
       </c>
       <c r="G2" s="21" t="s">
         <v>53</v>
@@ -2378,7 +2379,7 @@
         <v>55</v>
       </c>
       <c r="F4" s="36">
-        <v>1.08</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="G4" s="21" t="s">
         <v>53</v>
